--- a/UAT List - Nov 2018 v.0.7.1.xlsx
+++ b/UAT List - Nov 2018 v.0.7.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tembagabaru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAAF6E5-0CE7-43F0-AAC8-1083A133E698}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C74D0-9CD8-40DA-B7D9-9D76F7AD445B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,7 +769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,6 +785,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +831,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -876,6 +882,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1183,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2789,19 +2802,19 @@
         <f>B69+1</f>
         <v>66</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="21">
         <v>43454</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F71" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="22" t="s">
         <v>207</v>
       </c>
       <c r="I71" s="19" t="s">
@@ -2813,19 +2826,19 @@
         <f>B71+1</f>
         <v>67</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="21">
         <v>43454</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="22" t="s">
         <v>207</v>
       </c>
       <c r="I72" s="19" t="s">
@@ -2837,19 +2850,19 @@
         <f t="shared" ref="B73:B113" si="1">B72+1</f>
         <v>68</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="21">
         <v>43454</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="22" t="s">
         <v>207</v>
       </c>
       <c r="H73" t="s">
